--- a/Results/xlsx/RS230006BOS01.xlsx
+++ b/Results/xlsx/RS230006BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1129,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28110</t>
+          <t xml:space="preserve">      30436</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1164,19 +1164,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28111</t>
+          <t xml:space="preserve">      30437</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1211,19 +1211,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28436</t>
+          <t xml:space="preserve">      30580</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28437</t>
+          <t xml:space="preserve">      30581</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1305,19 +1305,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28283</t>
+          <t xml:space="preserve">      30527</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1347,24 +1347,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28284</t>
+          <t xml:space="preserve">      30674</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28383</t>
+          <t xml:space="preserve">      30753</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28536</t>
+          <t xml:space="preserve">      30754</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1493,19 +1493,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25448</t>
+          <t xml:space="preserve">      28110</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1540,19 +1540,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25449</t>
+          <t xml:space="preserve">      28111</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1587,19 +1587,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25369</t>
+          <t xml:space="preserve">      28436</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1629,24 +1629,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25550</t>
+          <t xml:space="preserve">      28437</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25629</t>
+          <t xml:space="preserve">      28283</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1728,19 +1728,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25630</t>
+          <t xml:space="preserve">      28284</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1775,19 +1775,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25723</t>
+          <t xml:space="preserve">      28383</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26776</t>
+          <t xml:space="preserve">      28536</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1864,24 +1864,24 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.09                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-09</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26777</t>
+          <t xml:space="preserve">      25448</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1911,24 +1911,24 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-09</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26854</t>
+          <t xml:space="preserve">      25449</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1963,19 +1963,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-09</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27595</t>
+          <t xml:space="preserve">      25369</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2005,24 +2005,24 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27596</t>
+          <t xml:space="preserve">      25550</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27529</t>
+          <t xml:space="preserve">      25629</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2099,24 +2099,24 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27778</t>
+          <t xml:space="preserve">      25630</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2146,24 +2146,24 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27699</t>
+          <t xml:space="preserve">      25723</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,19 +2198,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27949</t>
+          <t xml:space="preserve">      26776</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.09                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28204</t>
+          <t xml:space="preserve">      26777</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2292,19 +2292,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      23478</t>
+          <t xml:space="preserve">      26854</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2334,24 +2334,24 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.01                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      23479</t>
+          <t xml:space="preserve">      27595</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2381,24 +2381,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      23578</t>
+          <t xml:space="preserve">      27596</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      24631</t>
+          <t xml:space="preserve">      27529</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2475,24 +2475,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-02</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      24866</t>
+          <t xml:space="preserve">      27778</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.03                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-03</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26920</t>
+          <t xml:space="preserve">      27699</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2569,24 +2569,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.10                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-10</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26921</t>
+          <t xml:space="preserve">      27949</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2616,24 +2616,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-10</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27024</t>
+          <t xml:space="preserve">      28204</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2668,19 +2668,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-10</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27103</t>
+          <t xml:space="preserve">      23478</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2715,19 +2715,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.11                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-11</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27104</t>
+          <t xml:space="preserve">      23479</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2762,19 +2762,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-11</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27197</t>
+          <t xml:space="preserve">      23578</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2809,19 +2809,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-11</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27263</t>
+          <t xml:space="preserve">      24631</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.12                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27264</t>
+          <t xml:space="preserve">      24866</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2903,19 +2903,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.03                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27348</t>
+          <t xml:space="preserve">      26920</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2945,24 +2945,24 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.10                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27427</t>
+          <t xml:space="preserve">      26921</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2992,24 +2992,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27428</t>
+          <t xml:space="preserve">      27024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3044,19 +3044,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28615</t>
+          <t xml:space="preserve">      27103</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3091,19 +3091,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.11                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28616</t>
+          <t xml:space="preserve">      27104</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-11</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28707</t>
+          <t xml:space="preserve">      27197</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3185,19 +3185,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-11</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28786</t>
+          <t xml:space="preserve">      27263</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3232,19 +3232,19 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.12                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28787</t>
+          <t xml:space="preserve">      27264</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3279,19 +3279,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28888</t>
+          <t xml:space="preserve">      27348</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3326,19 +3326,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29071</t>
+          <t xml:space="preserve">      27427</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3368,24 +3368,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30124</t>
+          <t xml:space="preserve">      27428</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3415,24 +3415,24 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-23</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28967</t>
+          <t xml:space="preserve">      28615</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3467,64 +3467,722 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t xml:space="preserve">      28616</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28707</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28786</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28787</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28888</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      29071</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      30124</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28967</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t xml:space="preserve">      28968</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-22</t>
         </is>
       </c>
     </row>
-    <row r="67"/>
-    <row r="68"/>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      30845</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      30911</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      30996</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      31165</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      31075</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      31076</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="81"/>
+    <row r="82"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
